--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_23_FormInput.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_23_FormInput.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form" sheetId="1" r:id="Rd3cbf602ff614248"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form" sheetId="1" r:id="Red7a3841b0b642c6"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -151,7 +152,7 @@
       <x:formula1>"Basic,Premium,Enterprise"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="0" showErrorMessage="1" sqref="B8:B8">
-      <x:formula1>45977</x:formula1>
+      <x:formula1>45981</x:formula1>
     </x:dataValidation>
   </x:dataValidations>
 </x:worksheet>

--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_23_FormInput.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_23_FormInput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form" sheetId="1" r:id="Red7a3841b0b642c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form" sheetId="1" r:id="Rfdbb0cfb6e2d4fac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -152,7 +152,7 @@
       <x:formula1>"Basic,Premium,Enterprise"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="0" showErrorMessage="1" sqref="B8:B8">
-      <x:formula1>45981</x:formula1>
+      <x:formula1>46034</x:formula1>
     </x:dataValidation>
   </x:dataValidations>
 </x:worksheet>
